--- a/ExcelSheet/vlookup.xlsx
+++ b/ExcelSheet/vlookup.xlsx
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1337,8 +1337,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1375,12 +1375,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1530,6 +1529,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Madhav Kumar" refreshedDate="45336.12849988426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="101" xr:uid="{7767C508-892E-4430-BA34-483135BCD91B}">
   <cacheSource type="worksheet">
@@ -1545,7 +1548,7 @@
     <cacheField name="employment date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1980-12-11T00:00:00" maxDate="2012-01-25T00:00:00"/>
     </cacheField>
-    <cacheField name="salary" numFmtId="168">
+    <cacheField name="salary" numFmtId="164">
       <sharedItems/>
     </cacheField>
     <cacheField name="loan" numFmtId="0">
@@ -1658,7 +1661,7 @@
     <cacheField name="leave time" numFmtId="18">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T15:00:00" maxDate="1899-12-30T17:55:00"/>
     </cacheField>
-    <cacheField name="working time" numFmtId="170">
+    <cacheField name="working time" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:15:00" maxDate="1899-12-30T23:45:00"/>
     </cacheField>
     <cacheField name="Minutes (arrival time)" numFmtId="0" databaseField="0">
@@ -2889,7 +2892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3C588F8-8F86-42E1-8758-36C5F5E942C2}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3C588F8-8F86-42E1-8758-36C5F5E942C2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L33:M42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -3000,7 +3003,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="18" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="63">
         <item sd="0" x="0"/>
@@ -3452,8 +3455,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3532,7 +3535,7 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>29566</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3551,7 +3554,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f>IF(H2&gt;G2,H2-G2,1+H2-G2)</f>
+        <f t="shared" ref="I2:I33" si="0">IF(H2&gt;G2,H2-G2,1+H2-G2)</f>
         <v>0.3298611111111111</v>
       </c>
       <c r="K2" t="s">
@@ -3589,7 +3592,7 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>29574</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3608,7 +3611,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I3" s="3">
-        <f>IF(H3&gt;G3,H3-G3,1+H3-G3)</f>
+        <f t="shared" si="0"/>
         <v>0.30208333333333337</v>
       </c>
     </row>
@@ -3619,7 +3622,7 @@
       <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>29596</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3638,7 +3641,7 @@
         <v>0.625</v>
       </c>
       <c r="I4" s="3">
-        <f>IF(H4&gt;G4,H4-G4,1+H4-G4)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3649,7 +3652,7 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>29754</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3668,7 +3671,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="I5" s="3">
-        <f>IF(H5&gt;G5,H5-G5,1+H5-G5)</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
     </row>
@@ -3679,7 +3682,7 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>29903</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3698,7 +3701,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="I6" s="3">
-        <f>IF(H6&gt;G6,H6-G6,1+H6-G6)</f>
+        <f t="shared" si="0"/>
         <v>0.2326388888888889</v>
       </c>
       <c r="K6" t="s">
@@ -3718,7 +3721,7 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>29911</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3737,13 +3740,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="I7" s="3">
-        <f>IF(H7&gt;G7,H7-G7,1+H7-G7)</f>
+        <f t="shared" si="0"/>
         <v>0.19930555555555551</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f>VLOOKUP(K7,B1:I102,2,0)</f>
         <v>35009</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>29949</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3778,7 +3781,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="I8" s="3">
-        <f>IF(H8&gt;G8,H8-G8,1+H8-G8)</f>
+        <f t="shared" si="0"/>
         <v>0.36111111111111105</v>
       </c>
     </row>
@@ -3789,7 +3792,7 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>30007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3808,7 +3811,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="I9" s="3">
-        <f>IF(H9&gt;G9,H9-G9,1+H9-G9)</f>
+        <f t="shared" si="0"/>
         <v>0.11319444444444449</v>
       </c>
       <c r="K9" t="s">
@@ -3825,7 +3828,7 @@
       <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>30094</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3844,7 +3847,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="I10" s="3">
-        <f>IF(H10&gt;G10,H10-G10,1+H10-G10)</f>
+        <f t="shared" si="0"/>
         <v>0.11111111111111105</v>
       </c>
       <c r="K10" t="s">
@@ -3862,7 +3865,7 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>30127</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3881,7 +3884,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="I11" s="3">
-        <f>IF(H11&gt;G11,H11-G11,1+H11-G11)</f>
+        <f t="shared" si="0"/>
         <v>0.25347222222222215</v>
       </c>
     </row>
@@ -3892,7 +3895,7 @@
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>30184</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3911,7 +3914,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="I12" s="3">
-        <f>IF(H12&gt;G12,H12-G12,1+H12-G12)</f>
+        <f t="shared" si="0"/>
         <v>0.13888888888888884</v>
       </c>
       <c r="K12" t="s">
@@ -3925,7 +3928,7 @@
       <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>30277</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3944,7 +3947,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="I13" s="3">
-        <f>IF(H13&gt;G13,H13-G13,1+H13-G13)</f>
+        <f t="shared" si="0"/>
         <v>9.722222222222221E-2</v>
       </c>
     </row>
@@ -3955,7 +3958,7 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>30470</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3974,7 +3977,7 @@
         <v>0.64027777777777783</v>
       </c>
       <c r="I14" s="3">
-        <f>IF(H14&gt;G14,H14-G14,1+H14-G14)</f>
+        <f t="shared" si="0"/>
         <v>0.29305555555555557</v>
       </c>
     </row>
@@ -3985,7 +3988,7 @@
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>30493</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -4004,7 +4007,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="I15" s="3">
-        <f>IF(H15&gt;G15,H15-G15,1+H15-G15)</f>
+        <f t="shared" si="0"/>
         <v>0.3298611111111111</v>
       </c>
     </row>
@@ -4015,7 +4018,7 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>30511</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4034,7 +4037,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="I16" s="3">
-        <f>IF(H16&gt;G16,H16-G16,1+H16-G16)</f>
+        <f t="shared" si="0"/>
         <v>0.16319444444444453</v>
       </c>
     </row>
@@ -4045,7 +4048,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>30556</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -4064,7 +4067,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="I17" s="3">
-        <f>IF(H17&gt;G17,H17-G17,1+H17-G17)</f>
+        <f t="shared" si="0"/>
         <v>0.18055555555555547</v>
       </c>
     </row>
@@ -4075,7 +4078,7 @@
       <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>30839</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4094,7 +4097,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="I18" s="3">
-        <f>IF(H18&gt;G18,H18-G18,1+H18-G18)</f>
+        <f t="shared" si="0"/>
         <v>0.22569444444444453</v>
       </c>
     </row>
@@ -4105,7 +4108,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>30928</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4124,7 +4127,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I19" s="3">
-        <f>IF(H19&gt;G19,H19-G19,1+H19-G19)</f>
+        <f t="shared" si="0"/>
         <v>7.638888888888884E-2</v>
       </c>
     </row>
@@ -4135,7 +4138,7 @@
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>31032</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4154,7 +4157,7 @@
         <v>0.72777777777777775</v>
       </c>
       <c r="I20" s="3">
-        <f>IF(H20&gt;G20,H20-G20,1+H20-G20)</f>
+        <f t="shared" si="0"/>
         <v>0.32847222222222217</v>
       </c>
     </row>
@@ -4165,7 +4168,7 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>31149</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4184,7 +4187,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="I21" s="3">
-        <f>IF(H21&gt;G21,H21-G21,1+H21-G21)</f>
+        <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
     </row>
@@ -4195,7 +4198,7 @@
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>31290</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4214,7 +4217,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="I22" s="3">
-        <f>IF(H22&gt;G22,H22-G22,1+H22-G22)</f>
+        <f t="shared" si="0"/>
         <v>0.2708333333333332</v>
       </c>
     </row>
@@ -4225,7 +4228,7 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>31444</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4244,7 +4247,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="I23" s="3">
-        <f>IF(H23&gt;G23,H23-G23,1+H23-G23)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -4255,7 +4258,7 @@
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>31642</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4274,7 +4277,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="I24" s="3">
-        <f>IF(H24&gt;G24,H24-G24,1+H24-G24)</f>
+        <f t="shared" si="0"/>
         <v>0.23402777777777783</v>
       </c>
     </row>
@@ -4285,7 +4288,7 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>31744</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4304,7 +4307,7 @@
         <v>0.65625</v>
       </c>
       <c r="I25" s="3">
-        <f>IF(H25&gt;G25,H25-G25,1+H25-G25)</f>
+        <f t="shared" si="0"/>
         <v>0.16319444444444442</v>
       </c>
     </row>
@@ -4315,7 +4318,7 @@
       <c r="B26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>31774</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4334,7 +4337,7 @@
         <v>0.71875</v>
       </c>
       <c r="I26" s="3">
-        <f>IF(H26&gt;G26,H26-G26,1+H26-G26)</f>
+        <f t="shared" si="0"/>
         <v>0.3298611111111111</v>
       </c>
     </row>
@@ -4345,7 +4348,7 @@
       <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>31818</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4364,7 +4367,7 @@
         <v>0.71875</v>
       </c>
       <c r="I27" s="3">
-        <f>IF(H27&gt;G27,H27-G27,1+H27-G27)</f>
+        <f t="shared" si="0"/>
         <v>0.10763888888888895</v>
       </c>
     </row>
@@ -4375,7 +4378,7 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>31841</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4394,7 +4397,7 @@
         <v>0.6875</v>
       </c>
       <c r="I28" s="3">
-        <f>IF(H28&gt;G28,H28-G28,1+H28-G28)</f>
+        <f t="shared" si="0"/>
         <v>0.34375</v>
       </c>
     </row>
@@ -4405,7 +4408,7 @@
       <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>32114</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4424,7 +4427,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I29" s="3">
-        <f>IF(H29&gt;G29,H29-G29,1+H29-G29)</f>
+        <f t="shared" si="0"/>
         <v>0.40277777777777779</v>
       </c>
     </row>
@@ -4435,7 +4438,7 @@
       <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>32138</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4454,7 +4457,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="I30" s="3">
-        <f>IF(H30&gt;G30,H30-G30,1+H30-G30)</f>
+        <f t="shared" si="0"/>
         <v>0.34930555555555559</v>
       </c>
     </row>
@@ -4465,7 +4468,7 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>32161</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4484,7 +4487,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I31" s="3">
-        <f>IF(H31&gt;G31,H31-G31,1+H31-G31)</f>
+        <f t="shared" si="0"/>
         <v>0.33680555555555564</v>
       </c>
     </row>
@@ -4495,7 +4498,7 @@
       <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>32188</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4514,7 +4517,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="I32" s="3">
-        <f>IF(H32&gt;G32,H32-G32,1+H32-G32)</f>
+        <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
     </row>
@@ -4525,7 +4528,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>32277</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4544,10 +4547,10 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="I33" s="3">
-        <f>IF(H33&gt;G33,H33-G33,1+H33-G33)</f>
+        <f t="shared" si="0"/>
         <v>0.2013888888888889</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>419</v>
       </c>
       <c r="M33" t="s">
@@ -4561,7 +4564,7 @@
       <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>32283</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4580,13 +4583,13 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="I34" s="3">
-        <f>IF(H34&gt;G34,H34-G34,1+H34-G34)</f>
+        <f t="shared" ref="I34:I65" si="1">IF(H34&gt;G34,H34-G34,1+H34-G34)</f>
         <v>0.16875000000000001</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <v>12</v>
       </c>
     </row>
@@ -4597,7 +4600,7 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>32672</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4616,13 +4619,13 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="I35" s="3">
-        <f>IF(H35&gt;G35,H35-G35,1+H35-G35)</f>
+        <f t="shared" si="1"/>
         <v>0.27916666666666667</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35">
         <v>13</v>
       </c>
     </row>
@@ -4633,7 +4636,7 @@
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>32767</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -4652,13 +4655,13 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="I36" s="3">
-        <f>IF(H36&gt;G36,H36-G36,1+H36-G36)</f>
+        <f t="shared" si="1"/>
         <v>0.32291666666666657</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36">
         <v>13</v>
       </c>
     </row>
@@ -4669,7 +4672,7 @@
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>33063</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4688,13 +4691,13 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="I37" s="3">
-        <f>IF(H37&gt;G37,H37-G37,1+H37-G37)</f>
+        <f t="shared" si="1"/>
         <v>0.26736111111111122</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37">
         <v>13</v>
       </c>
     </row>
@@ -4705,7 +4708,7 @@
       <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>33178</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4724,13 +4727,13 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="I38" s="3">
-        <f>IF(H38&gt;G38,H38-G38,1+H38-G38)</f>
+        <f t="shared" si="1"/>
         <v>0.15972222222222227</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38">
         <v>12</v>
       </c>
     </row>
@@ -4741,7 +4744,7 @@
       <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>33308</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4760,13 +4763,13 @@
         <v>0.69305555555555554</v>
       </c>
       <c r="I39" s="3">
-        <f>IF(H39&gt;G39,H39-G39,1+H39-G39)</f>
+        <f t="shared" si="1"/>
         <v>0.24166666666666664</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39">
         <v>13</v>
       </c>
     </row>
@@ -4777,7 +4780,7 @@
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>33331</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4796,13 +4799,13 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="I40" s="3">
-        <f>IF(H40&gt;G40,H40-G40,1+H40-G40)</f>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40">
         <v>13</v>
       </c>
     </row>
@@ -4813,7 +4816,7 @@
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>33421</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4832,13 +4835,13 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="I41" s="3">
-        <f>IF(H41&gt;G41,H41-G41,1+H41-G41)</f>
+        <f t="shared" si="1"/>
         <v>0.21875000000000006</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41">
         <v>12</v>
       </c>
     </row>
@@ -4849,7 +4852,7 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>33794</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4868,13 +4871,13 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="I42" s="3">
-        <f>IF(H42&gt;G42,H42-G42,1+H42-G42)</f>
+        <f t="shared" si="1"/>
         <v>0.30902777777777773</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42">
         <v>101</v>
       </c>
     </row>
@@ -4885,7 +4888,7 @@
       <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>33803</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4904,7 +4907,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="I43" s="3">
-        <f>IF(H43&gt;G43,H43-G43,1+H43-G43)</f>
+        <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
     </row>
@@ -4915,7 +4918,7 @@
       <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>33983</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4934,7 +4937,7 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="I44" s="3">
-        <f>IF(H44&gt;G44,H44-G44,1+H44-G44)</f>
+        <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
     </row>
@@ -4945,7 +4948,7 @@
       <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>34192</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4964,7 +4967,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="I45" s="3">
-        <f>IF(H45&gt;G45,H45-G45,1+H45-G45)</f>
+        <f t="shared" si="1"/>
         <v>0.3020833333333332</v>
       </c>
     </row>
@@ -4975,7 +4978,7 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>34250</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4994,7 +4997,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="I46" s="3">
-        <f>IF(H46&gt;G46,H46-G46,1+H46-G46)</f>
+        <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
     </row>
@@ -5005,7 +5008,7 @@
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>34349</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5024,7 +5027,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="I47" s="3">
-        <f>IF(H47&gt;G47,H47-G47,1+H47-G47)</f>
+        <f t="shared" si="1"/>
         <v>0.21180555555555558</v>
       </c>
     </row>
@@ -5035,7 +5038,7 @@
       <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>34448</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5054,7 +5057,7 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="I48" s="3">
-        <f>IF(H48&gt;G48,H48-G48,1+H48-G48)</f>
+        <f t="shared" si="1"/>
         <v>8.8194444444444575E-2</v>
       </c>
     </row>
@@ -5065,7 +5068,7 @@
       <c r="B49" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>34515</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5084,7 +5087,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="I49" s="3">
-        <f>IF(H49&gt;G49,H49-G49,1+H49-G49)</f>
+        <f t="shared" si="1"/>
         <v>0.27430555555555558</v>
       </c>
     </row>
@@ -5095,7 +5098,7 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>34624</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -5114,7 +5117,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="I50" s="3">
-        <f>IF(H50&gt;G50,H50-G50,1+H50-G50)</f>
+        <f t="shared" si="1"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
@@ -5125,7 +5128,7 @@
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>34742</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -5144,7 +5147,7 @@
         <v>0.73472222222222217</v>
       </c>
       <c r="I51" s="3">
-        <f>IF(H51&gt;G51,H51-G51,1+H51-G51)</f>
+        <f t="shared" si="1"/>
         <v>0.12708333333333321</v>
       </c>
     </row>
@@ -5155,7 +5158,7 @@
       <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>34963</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -5174,7 +5177,7 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="I52" s="3">
-        <f>IF(H52&gt;G52,H52-G52,1+H52-G52)</f>
+        <f t="shared" si="1"/>
         <v>0.30902777777777785</v>
       </c>
     </row>
@@ -5185,7 +5188,7 @@
       <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>35009</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -5204,7 +5207,7 @@
         <v>0.66527777777777775</v>
       </c>
       <c r="I53" s="3">
-        <f>IF(H53&gt;G53,H53-G53,1+H53-G53)</f>
+        <f t="shared" si="1"/>
         <v>9.5833333333333326E-2</v>
       </c>
     </row>
@@ -5215,7 +5218,7 @@
       <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>35097</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -5234,7 +5237,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I54" s="3">
-        <f>IF(H54&gt;G54,H54-G54,1+H54-G54)</f>
+        <f t="shared" si="1"/>
         <v>0.10763888888888884</v>
       </c>
     </row>
@@ -5245,7 +5248,7 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>35140</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5264,7 +5267,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="I55" s="3">
-        <f>IF(H55&gt;G55,H55-G55,1+H55-G55)</f>
+        <f t="shared" si="1"/>
         <v>0.20833333333333343</v>
       </c>
     </row>
@@ -5275,7 +5278,7 @@
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>35183</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5294,7 +5297,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="I56" s="3">
-        <f>IF(H56&gt;G56,H56-G56,1+H56-G56)</f>
+        <f t="shared" si="1"/>
         <v>6.2500000000000111E-2</v>
       </c>
     </row>
@@ -5305,7 +5308,7 @@
       <c r="B57" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>35286</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -5324,7 +5327,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="I57" s="3">
-        <f>IF(H57&gt;G57,H57-G57,1+H57-G57)</f>
+        <f t="shared" si="1"/>
         <v>0.16805555555555562</v>
       </c>
     </row>
@@ -5335,7 +5338,7 @@
       <c r="B58" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>35496</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -5354,7 +5357,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="I58" s="3">
-        <f>IF(H58&gt;G58,H58-G58,1+H58-G58)</f>
+        <f t="shared" si="1"/>
         <v>0.12499999999999989</v>
       </c>
     </row>
@@ -5365,7 +5368,7 @@
       <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>35643</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -5384,7 +5387,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="I59" s="3">
-        <f>IF(H59&gt;G59,H59-G59,1+H59-G59)</f>
+        <f t="shared" si="1"/>
         <v>0.17013888888888884</v>
       </c>
     </row>
@@ -5395,7 +5398,7 @@
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>35877</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -5414,7 +5417,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="I60" s="3">
-        <f>IF(H60&gt;G60,H60-G60,1+H60-G60)</f>
+        <f t="shared" si="1"/>
         <v>0.11805555555555558</v>
       </c>
     </row>
@@ -5425,7 +5428,7 @@
       <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>36131</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -5444,7 +5447,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="I61" s="3">
-        <f>IF(H61&gt;G61,H61-G61,1+H61-G61)</f>
+        <f t="shared" si="1"/>
         <v>0.35763888888888895</v>
       </c>
     </row>
@@ -5455,7 +5458,7 @@
       <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>36293</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -5474,7 +5477,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="I62" s="3">
-        <f>IF(H62&gt;G62,H62-G62,1+H62-G62)</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5485,7 +5488,7 @@
       <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>36842</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -5504,7 +5507,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="I63" s="3">
-        <f>IF(H63&gt;G63,H63-G63,1+H63-G63)</f>
+        <f t="shared" si="1"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
@@ -5515,7 +5518,7 @@
       <c r="B64" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>37080</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -5534,7 +5537,7 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="I64" s="3">
-        <f>IF(H64&gt;G64,H64-G64,1+H64-G64)</f>
+        <f t="shared" si="1"/>
         <v>0.22569444444444448</v>
       </c>
     </row>
@@ -5545,7 +5548,7 @@
       <c r="B65" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>37166</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5564,7 +5567,7 @@
         <v>0.64722222222222225</v>
       </c>
       <c r="I65" s="3">
-        <f>IF(H65&gt;G65,H65-G65,1+H65-G65)</f>
+        <f t="shared" si="1"/>
         <v>5.3472222222222254E-2</v>
       </c>
     </row>
@@ -5575,7 +5578,7 @@
       <c r="B66" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>37224</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5594,7 +5597,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I66" s="3">
-        <f>IF(H66&gt;G66,H66-G66,1+H66-G66)</f>
+        <f t="shared" ref="I66:I97" si="2">IF(H66&gt;G66,H66-G66,1+H66-G66)</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -5605,7 +5608,7 @@
       <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>37245</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5624,7 +5627,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I67" s="3">
-        <f>IF(H67&gt;G67,H67-G67,1+H67-G67)</f>
+        <f t="shared" si="2"/>
         <v>0.14583333333333337</v>
       </c>
     </row>
@@ -5635,7 +5638,7 @@
       <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>37278</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5654,7 +5657,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="I68" s="3">
-        <f>IF(H68&gt;G68,H68-G68,1+H68-G68)</f>
+        <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -5665,7 +5668,7 @@
       <c r="B69" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>37380</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5684,7 +5687,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="I69" s="3">
-        <f>IF(H69&gt;G69,H69-G69,1+H69-G69)</f>
+        <f t="shared" si="2"/>
         <v>0.21527777777777785</v>
       </c>
     </row>
@@ -5695,7 +5698,7 @@
       <c r="B70" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>37444</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -5714,7 +5717,7 @@
         <v>0.68194444444444446</v>
       </c>
       <c r="I70" s="3">
-        <f>IF(H70&gt;G70,H70-G70,1+H70-G70)</f>
+        <f t="shared" si="2"/>
         <v>0.16458333333333341</v>
       </c>
     </row>
@@ -5725,7 +5728,7 @@
       <c r="B71" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>37452</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5744,7 +5747,7 @@
         <v>0.6875</v>
       </c>
       <c r="I71" s="3">
-        <f>IF(H71&gt;G71,H71-G71,1+H71-G71)</f>
+        <f t="shared" si="2"/>
         <v>0.15972222222222221</v>
       </c>
     </row>
@@ -5755,7 +5758,7 @@
       <c r="B72" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>37742</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -5774,7 +5777,7 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="I72" s="3">
-        <f>IF(H72&gt;G72,H72-G72,1+H72-G72)</f>
+        <f t="shared" si="2"/>
         <v>0.15416666666666667</v>
       </c>
     </row>
@@ -5785,7 +5788,7 @@
       <c r="B73" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>37841</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -5804,7 +5807,7 @@
         <v>0.71875</v>
       </c>
       <c r="I73" s="3">
-        <f>IF(H73&gt;G73,H73-G73,1+H73-G73)</f>
+        <f t="shared" si="2"/>
         <v>0.30208333333333331</v>
       </c>
     </row>
@@ -5815,7 +5818,7 @@
       <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>37888</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5834,7 +5837,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I74" s="3">
-        <f>IF(H74&gt;G74,H74-G74,1+H74-G74)</f>
+        <f t="shared" si="2"/>
         <v>0.25694444444444442</v>
       </c>
     </row>
@@ -5845,7 +5848,7 @@
       <c r="B75" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>38073</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5864,7 +5867,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="I75" s="3">
-        <f>IF(H75&gt;G75,H75-G75,1+H75-G75)</f>
+        <f t="shared" si="2"/>
         <v>0.2361111111111111</v>
       </c>
     </row>
@@ -5875,7 +5878,7 @@
       <c r="B76" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>38259</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5894,7 +5897,7 @@
         <v>0.68611111111111101</v>
       </c>
       <c r="I76" s="3">
-        <f>IF(H76&gt;G76,H76-G76,1+H76-G76)</f>
+        <f t="shared" si="2"/>
         <v>0.2937499999999999</v>
       </c>
     </row>
@@ -5905,7 +5908,7 @@
       <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>38293</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5924,7 +5927,7 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="I77" s="3">
-        <f>IF(H77&gt;G77,H77-G77,1+H77-G77)</f>
+        <f t="shared" si="2"/>
         <v>0.21180555555555547</v>
       </c>
     </row>
@@ -5935,7 +5938,7 @@
       <c r="B78" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>38357</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5954,7 +5957,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="I78" s="3">
-        <f>IF(H78&gt;G78,H78-G78,1+H78-G78)</f>
+        <f t="shared" si="2"/>
         <v>0.25138888888888888</v>
       </c>
     </row>
@@ -5965,7 +5968,7 @@
       <c r="B79" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>38533</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5984,7 +5987,7 @@
         <v>0.625</v>
       </c>
       <c r="I79" s="3">
-        <f>IF(H79&gt;G79,H79-G79,1+H79-G79)</f>
+        <f t="shared" si="2"/>
         <v>1.041666666666663E-2</v>
       </c>
     </row>
@@ -5995,7 +5998,7 @@
       <c r="B80" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>38599</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -6014,7 +6017,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I80" s="3">
-        <f>IF(H80&gt;G80,H80-G80,1+H80-G80)</f>
+        <f t="shared" si="2"/>
         <v>0.3263888888888889</v>
       </c>
     </row>
@@ -6025,7 +6028,7 @@
       <c r="B81" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>38756</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -6044,7 +6047,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="I81" s="3">
-        <f>IF(H81&gt;G81,H81-G81,1+H81-G81)</f>
+        <f t="shared" si="2"/>
         <v>0.15277777777777779</v>
       </c>
     </row>
@@ -6055,7 +6058,7 @@
       <c r="B82" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>38779</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -6074,7 +6077,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I82" s="3">
-        <f>IF(H82&gt;G82,H82-G82,1+H82-G82)</f>
+        <f t="shared" si="2"/>
         <v>0.13402777777777786</v>
       </c>
     </row>
@@ -6085,7 +6088,7 @@
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>38784</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -6104,7 +6107,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="I83" s="3">
-        <f>IF(H83&gt;G83,H83-G83,1+H83-G83)</f>
+        <f t="shared" si="2"/>
         <v>0.11805555555555558</v>
       </c>
     </row>
@@ -6115,7 +6118,7 @@
       <c r="B84" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>39003</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -6134,7 +6137,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="I84" s="3">
-        <f>IF(H84&gt;G84,H84-G84,1+H84-G84)</f>
+        <f t="shared" si="2"/>
         <v>0.98958333333333315</v>
       </c>
     </row>
@@ -6145,7 +6148,7 @@
       <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>39091</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -6164,7 +6167,7 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="I85" s="3">
-        <f>IF(H85&gt;G85,H85-G85,1+H85-G85)</f>
+        <f t="shared" si="2"/>
         <v>0.28819444444444436</v>
       </c>
     </row>
@@ -6175,7 +6178,7 @@
       <c r="B86" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>39145</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -6194,7 +6197,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="I86" s="3">
-        <f>IF(H86&gt;G86,H86-G86,1+H86-G86)</f>
+        <f t="shared" si="2"/>
         <v>0.24305555555555552</v>
       </c>
     </row>
@@ -6205,7 +6208,7 @@
       <c r="B87" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>39201</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -6224,7 +6227,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="I87" s="3">
-        <f>IF(H87&gt;G87,H87-G87,1+H87-G87)</f>
+        <f t="shared" si="2"/>
         <v>6.2499999999999889E-2</v>
       </c>
     </row>
@@ -6235,7 +6238,7 @@
       <c r="B88" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>39289</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -6254,7 +6257,7 @@
         <v>0.67222222222222217</v>
       </c>
       <c r="I88" s="3">
-        <f>IF(H88&gt;G88,H88-G88,1+H88-G88)</f>
+        <f t="shared" si="2"/>
         <v>0.17569444444444443</v>
       </c>
     </row>
@@ -6265,7 +6268,7 @@
       <c r="B89" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>39492</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -6284,7 +6287,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I89" s="3">
-        <f>IF(H89&gt;G89,H89-G89,1+H89-G89)</f>
+        <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
@@ -6295,7 +6298,7 @@
       <c r="B90" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>39545</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -6314,7 +6317,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I90" s="3">
-        <f>IF(H90&gt;G90,H90-G90,1+H90-G90)</f>
+        <f t="shared" si="2"/>
         <v>7.291666666666663E-2</v>
       </c>
     </row>
@@ -6325,7 +6328,7 @@
       <c r="B91" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>39579</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -6344,7 +6347,7 @@
         <v>0.65625</v>
       </c>
       <c r="I91" s="3">
-        <f>IF(H91&gt;G91,H91-G91,1+H91-G91)</f>
+        <f t="shared" si="2"/>
         <v>0.1736111111111111</v>
       </c>
     </row>
@@ -6355,7 +6358,7 @@
       <c r="B92" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>39919</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -6374,7 +6377,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="I92" s="3">
-        <f>IF(H92&gt;G92,H92-G92,1+H92-G92)</f>
+        <f t="shared" si="2"/>
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
@@ -6385,7 +6388,7 @@
       <c r="B93" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>39920</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -6404,7 +6407,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="I93" s="3">
-        <f>IF(H93&gt;G93,H93-G93,1+H93-G93)</f>
+        <f t="shared" si="2"/>
         <v>3.819444444444442E-2</v>
       </c>
     </row>
@@ -6415,7 +6418,7 @@
       <c r="B94" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>40092</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -6434,7 +6437,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="I94" s="3">
-        <f>IF(H94&gt;G94,H94-G94,1+H94-G94)</f>
+        <f t="shared" si="2"/>
         <v>5.208333333333337E-2</v>
       </c>
     </row>
@@ -6445,7 +6448,7 @@
       <c r="B95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>40111</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -6464,7 +6467,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="I95" s="3">
-        <f>IF(H95&gt;G95,H95-G95,1+H95-G95)</f>
+        <f t="shared" si="2"/>
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
@@ -6475,7 +6478,7 @@
       <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>40320</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -6494,7 +6497,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I96" s="3">
-        <f>IF(H96&gt;G96,H96-G96,1+H96-G96)</f>
+        <f t="shared" si="2"/>
         <v>0.12152777777777779</v>
       </c>
     </row>
@@ -6505,7 +6508,7 @@
       <c r="B97" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>40433</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -6524,7 +6527,7 @@
         <v>0.70694444444444438</v>
       </c>
       <c r="I97" s="3">
-        <f>IF(H97&gt;G97,H97-G97,1+H97-G97)</f>
+        <f t="shared" si="2"/>
         <v>0.34236111111111106</v>
       </c>
     </row>
@@ -6535,7 +6538,7 @@
       <c r="B98" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>40470</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -6554,7 +6557,7 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="I98" s="3">
-        <f>IF(H98&gt;G98,H98-G98,1+H98-G98)</f>
+        <f t="shared" ref="I98:I129" si="3">IF(H98&gt;G98,H98-G98,1+H98-G98)</f>
         <v>1.2500000000000067E-2</v>
       </c>
     </row>
@@ -6565,7 +6568,7 @@
       <c r="B99" t="s">
         <v>90</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>40477</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -6584,7 +6587,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="I99" s="3">
-        <f>IF(H99&gt;G99,H99-G99,1+H99-G99)</f>
+        <f t="shared" si="3"/>
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
@@ -6595,7 +6598,7 @@
       <c r="B100" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>40809</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -6614,7 +6617,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="I100" s="3">
-        <f>IF(H100&gt;G100,H100-G100,1+H100-G100)</f>
+        <f t="shared" si="3"/>
         <v>0.32291666666666669</v>
       </c>
     </row>
@@ -6625,7 +6628,7 @@
       <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>40836</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -6644,7 +6647,7 @@
         <v>0.65625</v>
       </c>
       <c r="I101" s="3">
-        <f>IF(H101&gt;G101,H101-G101,1+H101-G101)</f>
+        <f t="shared" si="3"/>
         <v>6.597222222222221E-2</v>
       </c>
     </row>
@@ -6655,7 +6658,7 @@
       <c r="B102" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>40932</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -6674,7 +6677,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="I102" s="3">
-        <f>IF(H102&gt;G102,H102-G102,1+H102-G102)</f>
+        <f t="shared" si="3"/>
         <v>0.20624999999999993</v>
       </c>
     </row>
